--- a/참고자료/00.테이블명세 양식(Oracle).xlsx
+++ b/참고자료/00.테이블명세 양식(Oracle).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="매입매출장" sheetId="12" r:id="rId6"/>
     <sheet name="상품정보" sheetId="11" r:id="rId7"/>
     <sheet name="거래처정보" sheetId="13" r:id="rId8"/>
+    <sheet name="주문정보" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="260">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -942,6 +943,130 @@
   </si>
   <si>
     <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주문정보)테이블 명세서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_ORDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매관리에서 고객의 주문 상세정보를 관리할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_CNUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_PCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_PNAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_QTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +1132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1282,13 +1407,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,6 +1512,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,13 +1578,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2428,23 +2594,23 @@
       <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="33" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="33"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="13">
         <v>44026</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="35"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -2453,38 +2619,38 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="34" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="34">
         <v>1</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -2537,11 +2703,11 @@
       <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
@@ -3499,23 +3665,23 @@
       <c r="C1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="33" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="33"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="13">
         <v>44027</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="35"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -3524,38 +3690,38 @@
       <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="34" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="34">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -3608,11 +3774,11 @@
       <c r="F5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
@@ -4560,23 +4726,23 @@
       <c r="C1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="33" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="33"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="13">
         <v>44028</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="35"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -4585,38 +4751,38 @@
       <c r="C2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="34" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="34">
         <v>2</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -4669,11 +4835,11 @@
       <c r="F5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
@@ -4979,23 +5145,23 @@
       <c r="B1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="13">
         <v>44028</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -5004,36 +5170,36 @@
       <c r="B2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -5377,23 +5543,23 @@
       <c r="B1" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="13">
         <v>44028</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -5402,36 +5568,36 @@
       <c r="B2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -5773,23 +5939,23 @@
       <c r="B1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="13">
         <v>44028</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -5798,36 +5964,36 @@
       <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -5880,11 +6046,11 @@
       <c r="E5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="18" t="s">
@@ -6240,23 +6406,23 @@
       <c r="B1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="13">
         <v>44032</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -6265,36 +6431,36 @@
       <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -6347,11 +6513,11 @@
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="18" t="s">
@@ -6374,11 +6540,11 @@
       <c r="E6" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="23"/>
@@ -6449,11 +6615,11 @@
       <c r="E9" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="23" t="s">
@@ -6627,15 +6793,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C1:F2"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6646,8 +6812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6665,23 +6831,23 @@
       <c r="B1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="13">
         <v>44032</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -6690,36 +6856,36 @@
       <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -6772,11 +6938,11 @@
       <c r="E5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="18"/>
@@ -6797,11 +6963,11 @@
       <c r="E6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="23"/>
@@ -6862,9 +7028,9 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="23"/>
@@ -7049,4 +7215,456 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="13">
+        <v>44034</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/참고자료/00.테이블명세 양식(Oracle).xlsx
+++ b/참고자료/00.테이블명세 양식(Oracle).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="2" r:id="rId1"/>
@@ -1521,6 +1521,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,15 +1585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2594,23 +2594,23 @@
       <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="13">
         <v>44026</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -2619,38 +2619,38 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="37" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="37">
         <v>1</v>
       </c>
-      <c r="L2" s="35"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -2703,11 +2703,11 @@
       <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
@@ -3665,23 +3665,23 @@
       <c r="C1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="13">
         <v>44027</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -3690,38 +3690,38 @@
       <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="37" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="37">
         <v>2</v>
       </c>
-      <c r="L2" s="35"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -3774,11 +3774,11 @@
       <c r="F5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
@@ -4726,23 +4726,23 @@
       <c r="C1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="13">
         <v>44028</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -4751,38 +4751,38 @@
       <c r="C2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="37" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="37">
         <v>2</v>
       </c>
-      <c r="L2" s="35"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -4835,11 +4835,11 @@
       <c r="F5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
@@ -5145,23 +5145,23 @@
       <c r="B1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="13">
         <v>44028</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -5170,36 +5170,36 @@
       <c r="B2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -5543,23 +5543,23 @@
       <c r="B1" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="13">
         <v>44028</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -5568,36 +5568,36 @@
       <c r="B2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -5939,23 +5939,23 @@
       <c r="B1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="13">
         <v>44028</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -5964,36 +5964,36 @@
       <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -6046,11 +6046,11 @@
       <c r="E5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="18" t="s">
@@ -6406,23 +6406,23 @@
       <c r="B1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="13">
         <v>44032</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -6431,36 +6431,36 @@
       <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -6513,11 +6513,11 @@
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="18" t="s">
@@ -6540,11 +6540,11 @@
       <c r="E6" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="23"/>
@@ -6615,11 +6615,11 @@
       <c r="E9" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="23" t="s">
@@ -6793,15 +6793,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6831,23 +6831,23 @@
       <c r="B1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="13">
         <v>44032</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -6856,36 +6856,36 @@
       <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -6938,11 +6938,11 @@
       <c r="E5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="18"/>
@@ -7028,9 +7028,9 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="23"/>
@@ -7222,7 +7222,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H13"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7240,23 +7240,23 @@
       <c r="B1" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="13">
         <v>44034</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -7265,69 +7265,69 @@
       <c r="B2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="28" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
       <c r="B6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="29" t="s">
         <v>243</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -7375,8 +7375,8 @@
       <c r="F6" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -7388,16 +7388,16 @@
       <c r="B7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="29" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="14"/>
@@ -7413,7 +7413,7 @@
       <c r="B8" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="29" t="s">
         <v>244</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7438,7 +7438,7 @@
       <c r="B9" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="29" t="s">
         <v>245</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -7450,8 +7450,8 @@
       <c r="F9" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -7463,7 +7463,7 @@
       <c r="B10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="29" t="s">
         <v>246</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -7486,7 +7486,7 @@
       <c r="B11" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="29" t="s">
         <v>247</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -7509,7 +7509,7 @@
       <c r="B12" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="29" t="s">
         <v>254</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -7532,7 +7532,7 @@
       <c r="B13" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="29" t="s">
         <v>248</v>
       </c>
       <c r="D13" s="14" t="s">
